--- a/data/template/Weekly_work_summary_group_by_major_task.xlsx
+++ b/data/template/Weekly_work_summary_group_by_major_task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D956D-28CC-4B08-BC93-54F41A9B9D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE68752-90FA-488B-ADC6-2AD03AD376F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="16996" windowHeight="10696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>工作目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>分任务进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,11 +447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -455,11 +459,12 @@
     <col min="1" max="1" width="29.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="43.59765625" style="2" customWidth="1"/>
     <col min="3" max="4" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.53125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.53125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,12 +478,15 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -491,11 +499,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0710FD3-E160-463B-81E3-4BCF0169DD99}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -503,11 +511,12 @@
     <col min="1" max="1" width="29.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="43.59765625" style="2" customWidth="1"/>
     <col min="3" max="4" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.53125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.53125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
+    <row r="1" spans="1:8" ht="33.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,12 +530,15 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/data/template/Weekly_work_summary_group_by_major_task.xlsx
+++ b/data/template/Weekly_work_summary_group_by_major_task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE68752-90FA-488B-ADC6-2AD03AD376F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC2C9E7-2FBA-47A4-AF8E-25E4625C2C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="16996" windowHeight="10696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="本周" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -133,11 +133,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -451,30 +496,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.19921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.59765625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.53125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="36.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="34.799999999999997">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -492,6 +537,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="延期">
+      <formula>NOT(ISERROR(SEARCH("延期",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -503,30 +553,30 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.19921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.59765625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="7.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.53125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="36.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="34.799999999999997">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -544,6 +594,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="延期">
+      <formula>NOT(ISERROR(SEARCH("延期",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
